--- a/biology/Botanique/Parc_du_Waux-hall_(Mons)/Parc_du_Waux-hall_(Mons).xlsx
+++ b/biology/Botanique/Parc_du_Waux-hall_(Mons)/Parc_du_Waux-hall_(Mons).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le Parc du Waux-hall (parfois orthographié Wauxhall ou Waux hall) est un parc paysager à Mons (dans la province belge du Hainaut), situé à l'extérieur du centre-ville historique, aménagé entre 1862 et 1864.
@@ -489,8 +501,8 @@
 «La caille» de George Grard;
 «La belle plébéienne» de René Harvent;
 un «Nu sortant de l'eau» par Christian Leroy;
-Sur la berge d'un des étang, une statue de femme couchée accompagnée de deux enfants, non attribuée, mais qui pourrait être une «Nymphe et tritons» par Louis-Henri Devillez[1];
-Une statue en marbre blanc, non attribuée, probablement «La toilette», par le même sculpteur[1];
+Sur la berge d'un des étang, une statue de femme couchée accompagnée de deux enfants, non attribuée, mais qui pourrait être une «Nymphe et tritons» par Louis-Henri Devillez;
+Une statue en marbre blanc, non attribuée, probablement «La toilette», par le même sculpteur;
 un bas-relief représentant Arthur Cantillon par Gustave Jacobs;
 un buste de la Reine Astrid par Victor Rousseau.</t>
         </is>
